--- a/6_Semestre/Automatizacion_II/Clases/5_PID/Interpolacion.xlsx
+++ b/6_Semestre/Automatizacion_II/Clases/5_PID/Interpolacion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Desktop\Ing_en_automatizacion\6_Semestre\Automatizacion_II\Clases\5_PID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3514034-7E82-4211-9668-EAE8D6EBE43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650F06A1-7269-4F8F-982C-F3B555DDE1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{717BB28A-F747-4C64-88B9-C1AF063656A8}"/>
   </bookViews>
@@ -36,12 +36,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Voltaje</t>
   </si>
   <si>
     <t>Luxes</t>
+  </si>
+  <si>
+    <t>Ohms</t>
+  </si>
+  <si>
+    <t>Vout</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Vin</t>
   </si>
 </sst>
 </file>
@@ -2477,143 +2489,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144CDF26-D914-4359-9B3B-99D0559A1B45}">
-  <dimension ref="B2:C23"/>
+  <dimension ref="B2:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="234" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
+      <c r="K3">
+        <v>0.5</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>14000</v>
+      </c>
+      <c r="N3">
+        <f>$Q$3*(M3/(M3+$Q$2))</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="P3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0.6</v>
       </c>
       <c r="C4">
         <v>70</v>
       </c>
+      <c r="K4">
+        <v>0.7</v>
+      </c>
+      <c r="L4">
+        <v>42</v>
+      </c>
+      <c r="M4">
+        <v>5300</v>
+      </c>
+      <c r="N4">
+        <f>$Q$3*(M4/(M4+$Q$2))</f>
+        <v>4.2063492063492065</v>
+      </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
         <v>215</v>
       </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>194</v>
+      </c>
+      <c r="M5">
+        <v>1830</v>
+      </c>
+      <c r="N5">
+        <f>$Q$3*(M5/(M5+$Q$2))</f>
+        <v>3.2332155477031805</v>
+      </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1.5</v>
       </c>
       <c r="C6">
         <v>372</v>
       </c>
+      <c r="K6">
+        <v>1.5</v>
+      </c>
+      <c r="L6">
+        <v>331</v>
+      </c>
+      <c r="M6">
+        <v>1288</v>
+      </c>
+      <c r="N6">
+        <f>$Q$3*(M6/(M6+$Q$2))</f>
+        <v>2.8146853146853146</v>
+      </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
         <v>470</v>
       </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>460</v>
+      </c>
+      <c r="M7">
+        <v>1045</v>
+      </c>
+      <c r="N7">
+        <f>$Q$3*(M7/(M7+$Q$2))</f>
+        <v>2.5550122249388751</v>
+      </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2.5</v>
       </c>
       <c r="C8">
         <v>615</v>
       </c>
+      <c r="K8">
+        <v>2.5</v>
+      </c>
+      <c r="L8">
+        <v>583</v>
+      </c>
+      <c r="M8">
+        <v>901</v>
+      </c>
+      <c r="N8">
+        <f>$Q$3*(M8/(M8+$Q$2))</f>
+        <v>2.3698053655970543</v>
+      </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9">
         <v>788</v>
       </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>721</v>
+      </c>
+      <c r="M9">
+        <v>789</v>
+      </c>
+      <c r="N9">
+        <f>$Q$3*(M9/(M9+$Q$2))</f>
+        <v>2.205142537730576</v>
+      </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>3.5</v>
       </c>
       <c r="C10">
         <v>953</v>
       </c>
+      <c r="K10">
+        <v>3.5</v>
+      </c>
+      <c r="L10">
+        <v>845</v>
+      </c>
+      <c r="M10">
+        <v>716</v>
+      </c>
+      <c r="N10">
+        <f>$Q$3*(M10/(M10+$Q$2))</f>
+        <v>2.0862470862470865</v>
+      </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11">
         <v>1100</v>
       </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>968</v>
+      </c>
+      <c r="M11">
+        <v>660</v>
+      </c>
+      <c r="N11">
+        <f>$Q$3*(M11/(M11+$Q$2))</f>
+        <v>1.9879518072289157</v>
+      </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>4.5</v>
       </c>
       <c r="C12">
         <v>1220</v>
       </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>1206</v>
+      </c>
+      <c r="M12">
+        <v>577</v>
+      </c>
+      <c r="N12">
+        <f>$Q$3*(M12/(M12+$Q$2))</f>
+        <v>1.829422954977806</v>
+      </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13">
         <v>1372</v>
       </c>
+      <c r="K13">
+        <v>6</v>
+      </c>
+      <c r="L13">
+        <v>1438</v>
+      </c>
+      <c r="M13">
+        <v>520</v>
+      </c>
+      <c r="N13">
+        <f>$Q$3*(M13/(M13+$Q$2))</f>
+        <v>1.7105263157894737</v>
+      </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>5.5</v>
       </c>
       <c r="C14">
         <v>1580</v>
       </c>
+      <c r="K14">
+        <v>7</v>
+      </c>
+      <c r="L14">
+        <v>1630</v>
+      </c>
+      <c r="M14">
+        <v>485</v>
+      </c>
+      <c r="N14">
+        <f>$Q$3*(M14/(M14+$Q$2))</f>
+        <v>1.632996632996633</v>
+      </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>6</v>
       </c>
       <c r="C15">
         <v>1670</v>
       </c>
+      <c r="K15">
+        <v>8</v>
+      </c>
+      <c r="L15">
+        <v>1600</v>
+      </c>
+      <c r="M15">
+        <v>490</v>
+      </c>
+      <c r="N15">
+        <f>$Q$3*(M15/(M15+$Q$2))</f>
+        <v>1.644295302013423</v>
+      </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>6.5</v>
       </c>
       <c r="C16">
         <v>1672</v>
       </c>
+      <c r="K16">
+        <v>9</v>
+      </c>
+      <c r="L16">
+        <v>1570</v>
+      </c>
+      <c r="M16">
+        <v>493</v>
+      </c>
+      <c r="N16">
+        <f>$Q$3*(M16/(M16+$Q$2))</f>
+        <v>1.6510381781647689</v>
+      </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>7</v>
       </c>
       <c r="C17">
         <v>1670</v>
       </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <v>1550</v>
+      </c>
+      <c r="M17">
+        <v>497</v>
+      </c>
+      <c r="N17">
+        <f>$Q$3*(M17/(M17+$Q$2))</f>
+        <v>1.6599866399465599</v>
+      </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>7.5</v>
       </c>
@@ -2621,7 +2852,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>8</v>
       </c>
@@ -2629,7 +2860,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>8.5</v>
       </c>
@@ -2637,7 +2868,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>9</v>
       </c>
@@ -2645,7 +2876,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>9.5</v>
       </c>
@@ -2653,7 +2884,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>10</v>
       </c>

--- a/6_Semestre/Automatizacion_II/Clases/5_PID/Interpolacion.xlsx
+++ b/6_Semestre/Automatizacion_II/Clases/5_PID/Interpolacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Desktop\Ing_en_automatizacion\6_Semestre\Automatizacion_II\Clases\5_PID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650F06A1-7269-4F8F-982C-F3B555DDE1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C57619-CEE7-4B70-9ADB-13647900E24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{717BB28A-F747-4C64-88B9-C1AF063656A8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Voltaje</t>
   </si>
@@ -44,16 +44,10 @@
     <t>Luxes</t>
   </si>
   <si>
-    <t>Ohms</t>
+    <t>ADC</t>
   </si>
   <si>
-    <t>Vout</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Vin</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -131,6 +125,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>ADC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -167,23 +186,15 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Luxes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Luxes</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -194,156 +205,115 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.9331886746228959E-2"/>
+                  <c:y val="0.13086789436444352"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-MX"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$B$3:$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Hoja1!$D$3:$D$15</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$C$3:$C$23</c:f>
+              <c:f>Hoja1!$C$3:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>215</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>372</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>470</c:v>
+                  <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>615</c:v>
+                  <c:v>712</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>788</c:v>
+                  <c:v>858</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>953</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1100</c:v>
+                  <c:v>1140</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1220</c:v>
+                  <c:v>1287</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1372</c:v>
+                  <c:v>1297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1580</c:v>
+                  <c:v>1620</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1670</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1672</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1670</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1666</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1661</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1624</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1618</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1618</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1617</c:v>
+                  <c:v>1590</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -351,7 +321,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6E8B-4AFF-9538-61891ADF8E7A}"/>
+              <c16:uniqueId val="{00000000-91D7-4868-8D69-F76BE5237716}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -694,10 +664,9 @@
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>Hoja1!$B$3:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -730,7 +699,7 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5.5</c:v>
@@ -738,8 +707,8 @@
                 <c:pt idx="12">
                   <c:v>6</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -748,43 +717,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>215</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>372</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>470</c:v>
+                  <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>615</c:v>
+                  <c:v>712</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>788</c:v>
+                  <c:v>858</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>953</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1100</c:v>
+                  <c:v>1140</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1220</c:v>
+                  <c:v>1287</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1372</c:v>
+                  <c:v>1297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1580</c:v>
+                  <c:v>1620</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1670</c:v>
+                  <c:v>1590</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2099,16 +2068,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>669054</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>31608</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>71278</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>169556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>371929</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>536153</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>90714</xdr:rowOff>
+      <xdr:rowOff>38162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2135,16 +2104,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>670531</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>72755</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>184338</xdr:rowOff>
+      <xdr:rowOff>131786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>353786</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>518010</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>172358</xdr:rowOff>
+      <xdr:rowOff>119806</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2489,407 +2458,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144CDF26-D914-4359-9B3B-99D0559A1B45}">
-  <dimension ref="B2:Q23"/>
+  <dimension ref="B2:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="234" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" zoomScale="152" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2">
-        <v>1000</v>
-      </c>
+      <c r="E2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>0.5</v>
-      </c>
-      <c r="L3">
-        <v>4</v>
-      </c>
-      <c r="M3">
-        <v>14000</v>
-      </c>
-      <c r="N3">
-        <f>$Q$3*(M3/(M3+$Q$2))</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="P3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1248</v>
+      </c>
+      <c r="E3">
+        <f>D3/2</f>
+        <v>624</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0.6</v>
       </c>
       <c r="C4">
-        <v>70</v>
-      </c>
-      <c r="K4">
-        <v>0.7</v>
-      </c>
-      <c r="L4">
-        <v>42</v>
-      </c>
-      <c r="M4">
-        <v>5300</v>
-      </c>
-      <c r="N4">
-        <f>$Q$3*(M4/(M4+$Q$2))</f>
-        <v>4.2063492063492065</v>
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>10150</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E15" si="0">D4/2</f>
+        <v>5075</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>215</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>194</v>
-      </c>
-      <c r="M5">
-        <v>1830</v>
-      </c>
-      <c r="N5">
-        <f>$Q$3*(M5/(M5+$Q$2))</f>
-        <v>3.2332155477031805</v>
+        <v>237</v>
+      </c>
+      <c r="D5">
+        <v>21350</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>10675</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1.5</v>
       </c>
       <c r="C6">
-        <v>372</v>
-      </c>
-      <c r="K6">
-        <v>1.5</v>
-      </c>
-      <c r="L6">
-        <v>331</v>
-      </c>
-      <c r="M6">
-        <v>1288</v>
-      </c>
-      <c r="N6">
-        <f>$Q$3*(M6/(M6+$Q$2))</f>
-        <v>2.8146853146853146</v>
+        <v>400</v>
+      </c>
+      <c r="D6">
+        <v>24500</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>12250</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>470</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>460</v>
-      </c>
-      <c r="M7">
-        <v>1045</v>
-      </c>
-      <c r="N7">
-        <f>$Q$3*(M7/(M7+$Q$2))</f>
-        <v>2.5550122249388751</v>
+        <v>557</v>
+      </c>
+      <c r="D7">
+        <v>26230</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>13115</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2.5</v>
       </c>
       <c r="C8">
-        <v>615</v>
-      </c>
-      <c r="K8">
-        <v>2.5</v>
-      </c>
-      <c r="L8">
-        <v>583</v>
-      </c>
-      <c r="M8">
-        <v>901</v>
-      </c>
-      <c r="N8">
-        <f>$Q$3*(M8/(M8+$Q$2))</f>
-        <v>2.3698053655970543</v>
+        <v>712</v>
+      </c>
+      <c r="D8">
+        <v>27350</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>13675</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>788</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>721</v>
-      </c>
-      <c r="M9">
-        <v>789</v>
-      </c>
-      <c r="N9">
-        <f>$Q$3*(M9/(M9+$Q$2))</f>
-        <v>2.205142537730576</v>
+        <v>858</v>
+      </c>
+      <c r="D9">
+        <v>28200</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>14100</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>3.5</v>
       </c>
       <c r="C10">
-        <v>953</v>
-      </c>
-      <c r="K10">
-        <v>3.5</v>
-      </c>
-      <c r="L10">
-        <v>845</v>
-      </c>
-      <c r="M10">
-        <v>716</v>
-      </c>
-      <c r="N10">
-        <f>$Q$3*(M10/(M10+$Q$2))</f>
-        <v>2.0862470862470865</v>
+        <v>1000</v>
+      </c>
+      <c r="D10">
+        <v>28900</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>14450</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11">
-        <v>1100</v>
-      </c>
-      <c r="K11">
-        <v>4</v>
-      </c>
-      <c r="L11">
-        <v>968</v>
-      </c>
-      <c r="M11">
-        <v>660</v>
-      </c>
-      <c r="N11">
-        <f>$Q$3*(M11/(M11+$Q$2))</f>
-        <v>1.9879518072289157</v>
+        <v>1140</v>
+      </c>
+      <c r="D11">
+        <v>29490</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>14745</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>4.5</v>
       </c>
       <c r="C12">
-        <v>1220</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
-      <c r="L12">
-        <v>1206</v>
-      </c>
-      <c r="M12">
-        <v>577</v>
-      </c>
-      <c r="N12">
-        <f>$Q$3*(M12/(M12+$Q$2))</f>
-        <v>1.829422954977806</v>
+        <v>1287</v>
+      </c>
+      <c r="D12">
+        <v>29960</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>14980</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>5</v>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>1372</v>
-      </c>
-      <c r="K13">
-        <v>6</v>
-      </c>
-      <c r="L13">
-        <v>1438</v>
-      </c>
-      <c r="M13">
-        <v>520</v>
-      </c>
-      <c r="N13">
-        <f>$Q$3*(M13/(M13+$Q$2))</f>
-        <v>1.7105263157894737</v>
+        <v>1297</v>
+      </c>
+      <c r="D13">
+        <v>29840</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>14920</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>5.5</v>
       </c>
       <c r="C14">
-        <v>1580</v>
-      </c>
-      <c r="K14">
-        <v>7</v>
-      </c>
-      <c r="L14">
-        <v>1630</v>
-      </c>
-      <c r="M14">
-        <v>485</v>
-      </c>
-      <c r="N14">
-        <f>$Q$3*(M14/(M14+$Q$2))</f>
-        <v>1.632996632996633</v>
+        <v>1620</v>
+      </c>
+      <c r="D14">
+        <v>30800</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>15400</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>6</v>
       </c>
       <c r="C15">
-        <v>1670</v>
-      </c>
-      <c r="K15">
-        <v>8</v>
-      </c>
-      <c r="L15">
-        <v>1600</v>
-      </c>
-      <c r="M15">
-        <v>490</v>
-      </c>
-      <c r="N15">
-        <f>$Q$3*(M15/(M15+$Q$2))</f>
-        <v>1.644295302013423</v>
+        <v>1590</v>
+      </c>
+      <c r="D15">
+        <v>30800</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>15400</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>6.5</v>
       </c>
-      <c r="C16">
-        <v>1672</v>
-      </c>
-      <c r="K16">
-        <v>9</v>
-      </c>
-      <c r="L16">
-        <v>1570</v>
-      </c>
-      <c r="M16">
-        <v>493</v>
-      </c>
-      <c r="N16">
-        <f>$Q$3*(M16/(M16+$Q$2))</f>
-        <v>1.6510381781647689</v>
-      </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>7</v>
       </c>
-      <c r="C17">
-        <v>1670</v>
-      </c>
-      <c r="K17">
-        <v>10</v>
-      </c>
-      <c r="L17">
-        <v>1550</v>
-      </c>
-      <c r="M17">
-        <v>497</v>
-      </c>
-      <c r="N17">
-        <f>$Q$3*(M17/(M17+$Q$2))</f>
-        <v>1.6599866399465599</v>
-      </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>7.5</v>
       </c>
-      <c r="C18">
-        <v>1666</v>
-      </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>8</v>
       </c>
-      <c r="C19">
-        <v>1661</v>
-      </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>8.5</v>
       </c>
-      <c r="C20">
-        <v>1624</v>
-      </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>9</v>
       </c>
-      <c r="C21">
-        <v>1618</v>
-      </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>9.5</v>
       </c>
-      <c r="C22">
-        <v>1618</v>
-      </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>10</v>
-      </c>
-      <c r="C23">
-        <v>1617</v>
       </c>
     </row>
   </sheetData>

--- a/6_Semestre/Automatizacion_II/Clases/5_PID/Interpolacion.xlsx
+++ b/6_Semestre/Automatizacion_II/Clases/5_PID/Interpolacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Desktop\Ing_en_automatizacion\6_Semestre\Automatizacion_II\Clases\5_PID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C57619-CEE7-4B70-9ADB-13647900E24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F97315E-4624-4CF2-9E8A-487EFC74E2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{717BB28A-F747-4C64-88B9-C1AF063656A8}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Voltaje</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
     <t>Luxes</t>
   </si>
@@ -47,7 +44,10 @@
     <t>ADC</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Kc</t>
+  </si>
+  <si>
+    <t>Ti</t>
   </si>
 </sst>
 </file>
@@ -125,31 +125,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-MX"/>
-              <a:t>ADC</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -186,15 +161,12 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Luxes</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -205,11 +177,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -219,20 +191,20 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.9331886746228959E-2"/>
-                  <c:y val="0.13086789436444352"/>
+                  <c:x val="1.6324146981627298E-2"/>
+                  <c:y val="0.17085338291046953"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -267,53 +239,180 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$D$3:$D$15</c:f>
+              <c:f>Hoja1!$B$3:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>883</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1321</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$C$3:$C$15</c:f>
+              <c:f>Hoja1!$C$3:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>237</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>557</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>712</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>858</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1140</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1287</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1297</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1620</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1590</c:v>
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11250</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11750</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -321,7 +420,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-91D7-4868-8D69-F76BE5237716}"/>
+              <c16:uniqueId val="{00000000-6248-4C5E-8FAA-C8F278B8EAA3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -333,11 +432,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="495229488"/>
-        <c:axId val="495230928"/>
+        <c:axId val="516195104"/>
+        <c:axId val="516195584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="495229488"/>
+        <c:axId val="516195104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -394,12 +493,12 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495230928"/>
+        <c:crossAx val="516195584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="495230928"/>
+        <c:axId val="516195584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -456,447 +555,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495229488"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="4.944488188976378E-2"/>
-                  <c:y val="0.25925925925925924"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Hoja1!$B$3:$B$15</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hoja1!$C$3:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>557</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>712</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>858</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1287</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1297</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1620</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1590</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3FC7-499A-B069-0BAC00992818}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="587553136"/>
-        <c:axId val="587582896"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="587553136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="587582896"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="587582896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="587553136"/>
+        <c:crossAx val="516195104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -992,46 +651,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1548,543 +1167,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>71278</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>169556</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>653312</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>137348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>536153</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38162</xdr:rowOff>
+      <xdr:colOff>638273</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60646</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647F09D1-B6E9-0216-5D6A-D9C0FF5B9CC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B0F293A-FC1E-60A0-0FBB-F5C478036440}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2097,42 +1200,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>72755</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>131786</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>518010</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>119806</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B120F633-3DEF-9A9F-4241-45C4B3A2A806}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2458,10 +1525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144CDF26-D914-4359-9B3B-99D0559A1B45}">
-  <dimension ref="B2:N23"/>
+  <dimension ref="B2:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="152" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="K9" zoomScale="400" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,9 +1544,15 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1"/>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -2487,237 +1560,270 @@
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1248</v>
-      </c>
-      <c r="E3">
-        <f>D3/2</f>
-        <v>624</v>
+        <v>500</v>
+      </c>
+      <c r="F3">
+        <v>800</v>
+      </c>
+      <c r="G3">
+        <f>1910.4*LN(F3)-1668.3</f>
+        <v>11101.98224453681</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>34</v>
-      </c>
-      <c r="D4">
-        <v>10150</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E15" si="0">D4/2</f>
-        <v>5075</v>
+        <v>1000</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>237</v>
-      </c>
-      <c r="D5">
-        <v>21350</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>10675</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>400</v>
-      </c>
-      <c r="D6">
-        <v>24500</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>12250</v>
+        <v>2000</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>557</v>
-      </c>
-      <c r="D7">
-        <v>26230</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>13115</v>
+        <v>2500</v>
+      </c>
+      <c r="L7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>2.5</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>712</v>
-      </c>
-      <c r="D8">
-        <v>27350</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>13675</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>858</v>
-      </c>
-      <c r="D9">
-        <v>28200</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>14100</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>3.5</v>
+        <v>31</v>
       </c>
       <c r="C10">
-        <v>1000</v>
-      </c>
-      <c r="D10">
-        <v>28900</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>14450</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C11">
-        <v>1140</v>
-      </c>
-      <c r="D11">
-        <v>29490</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>14745</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>4.5</v>
+        <v>49</v>
       </c>
       <c r="C12">
-        <v>1287</v>
-      </c>
-      <c r="D12">
-        <v>29960</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>14980</v>
+        <v>5000</v>
+      </c>
+      <c r="M12" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>3</v>
+      <c r="B13">
+        <v>60</v>
       </c>
       <c r="C13">
-        <v>1297</v>
-      </c>
-      <c r="D13">
-        <v>29840</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>14920</v>
+        <v>5500</v>
+      </c>
+      <c r="M13">
+        <v>100</v>
+      </c>
+      <c r="N13">
+        <v>6700</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>5.5</v>
+        <v>74</v>
       </c>
       <c r="C14">
-        <v>1620</v>
-      </c>
-      <c r="D14">
-        <v>30800</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>15400</v>
+        <v>6000</v>
+      </c>
+      <c r="M14">
+        <v>400</v>
+      </c>
+      <c r="N14">
+        <v>10250</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C15">
-        <v>1590</v>
-      </c>
-      <c r="D15">
-        <v>30800</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>15400</v>
+        <v>6500</v>
+      </c>
+      <c r="M15">
+        <v>1000</v>
+      </c>
+      <c r="N15">
+        <v>11900</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="C16">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="C17">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="C18">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="C19">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="C20">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="C21">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="C22">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>10</v>
+        <v>460</v>
+      </c>
+      <c r="C23">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>585</v>
+      </c>
+      <c r="C24">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>669</v>
+      </c>
+      <c r="C25">
+        <v>11250</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>761</v>
+      </c>
+      <c r="C26">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>883</v>
+      </c>
+      <c r="C27">
+        <v>11750</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1030</v>
+      </c>
+      <c r="C28">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>1321</v>
+      </c>
+      <c r="C29">
+        <v>12300</v>
       </c>
     </row>
   </sheetData>
